--- a/WEB.CMS/wwwroot/Template/import/template-khach-hang-source.xlsx
+++ b/WEB.CMS/wwwroot/Template/import/template-khach-hang-source.xlsx
@@ -25,9 +25,6 @@
     <t xml:space="preserve">Số điện thoại </t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>hieu</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Nhu cầu</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,21 +409,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>123456789</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/WEB.CMS/wwwroot/Template/import/template-khach-hang-source.xlsx
+++ b/WEB.CMS/wwwroot/Template/import/template-khach-hang-source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>họ tên</t>
   </si>
@@ -35,13 +35,49 @@
   </si>
   <si>
     <t>Nhu cầu</t>
+  </si>
+  <si>
+    <t>Loại khách hàng (Id)</t>
+  </si>
+  <si>
+    <t>mã ID</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Đối tác chiến lược</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>Saller</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>Đại lý cấp 2</t>
+  </si>
+  <si>
+    <t>Doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Cộng tác viên</t>
+  </si>
+  <si>
+    <t>Nhân viên công ty</t>
+  </si>
+  <si>
+    <t>Đối tác chiến lược đặc biệt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +92,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -387,18 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +456,17 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -424,6 +478,79 @@
       </c>
       <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -431,5 +558,6 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>